--- a/train_y.xlsx
+++ b/train_y.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7030"/>
+  <dimension ref="A1:B7063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56683,6 +56683,270 @@
         <v>2.1</v>
       </c>
     </row>
+    <row r="7031">
+      <c r="A7031" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B7031" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="7032">
+      <c r="A7032" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B7032" t="n">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="7033">
+      <c r="A7033" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B7033" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="7034">
+      <c r="A7034" s="2" t="n">
+        <v>45724</v>
+      </c>
+      <c r="B7034" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="7035">
+      <c r="A7035" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B7035" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7036">
+      <c r="A7036" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B7036" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="7037">
+      <c r="A7037" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B7037" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7038">
+      <c r="A7038" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B7038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7039">
+      <c r="A7039" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B7039" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7040">
+      <c r="A7040" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B7040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7041">
+      <c r="A7041" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B7041" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="7042">
+      <c r="A7042" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B7042" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7043">
+      <c r="A7043" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B7043" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="7044">
+      <c r="A7044" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B7044" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="7045">
+      <c r="A7045" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B7045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7046">
+      <c r="A7046" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B7046" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="7047">
+      <c r="A7047" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B7047" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7048">
+      <c r="A7048" s="2" t="n">
+        <v>45738</v>
+      </c>
+      <c r="B7048" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7049">
+      <c r="A7049" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B7049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7050">
+      <c r="A7050" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B7050" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7051">
+      <c r="A7051" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B7051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7052">
+      <c r="A7052" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B7052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7053">
+      <c r="A7053" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B7053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7054">
+      <c r="A7054" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B7054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7055">
+      <c r="A7055" s="2" t="n">
+        <v>45745</v>
+      </c>
+      <c r="B7055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7056">
+      <c r="A7056" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B7056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7057">
+      <c r="A7057" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B7057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7058">
+      <c r="A7058" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B7058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7059">
+      <c r="A7059" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B7059" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="7060">
+      <c r="A7060" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B7060" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="7061">
+      <c r="A7061" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B7061" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="7062">
+      <c r="A7062" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B7062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7063">
+      <c r="A7063" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B7063" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
